--- a/team_specific_matrix/Boston College_A.xlsx
+++ b/team_specific_matrix/Boston College_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1787709497206704</v>
+        <v>0.165938864628821</v>
       </c>
       <c r="C2">
-        <v>0.5865921787709497</v>
+        <v>0.6026200873362445</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00558659217877095</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1340782122905028</v>
+        <v>0.1266375545851528</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09497206703910614</v>
+        <v>0.09606986899563319</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009523809523809525</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009523809523809525</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7904761904761904</v>
+        <v>0.7883211678832117</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1904761904761905</v>
+        <v>0.1970802919708029</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.68</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.28</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03144654088050314</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006289308176100629</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06289308176100629</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2012578616352201</v>
+        <v>0.2167487684729064</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02515723270440252</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1509433962264151</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="R6">
-        <v>0.08176100628930817</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="S6">
-        <v>0.440251572327044</v>
+        <v>0.3990147783251232</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.124031007751938</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03875968992248062</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06976744186046512</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.124031007751938</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007751937984496124</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1705426356589147</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="R7">
-        <v>0.06201550387596899</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="S7">
-        <v>0.4031007751937984</v>
+        <v>0.4213836477987422</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0701219512195122</v>
+        <v>0.06937799043062201</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01524390243902439</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05487804878048781</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1067073170731707</v>
+        <v>0.1267942583732057</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01829268292682927</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2347560975609756</v>
+        <v>0.222488038277512</v>
       </c>
       <c r="R8">
-        <v>0.07926829268292683</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="S8">
-        <v>0.4207317073170732</v>
+        <v>0.3995215311004784</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1037037037037037</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007407407407407408</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0962962962962963</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08888888888888889</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007407407407407408</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2074074074074074</v>
+        <v>0.1871657754010695</v>
       </c>
       <c r="R9">
-        <v>0.08148148148148149</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="S9">
-        <v>0.4074074074074074</v>
+        <v>0.4171122994652406</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1079404466501241</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01612903225806452</v>
+        <v>0.01721014492753623</v>
       </c>
       <c r="E10">
-        <v>0.002481389578163772</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="F10">
-        <v>0.07444168734491315</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09057071960297766</v>
+        <v>0.1032608695652174</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009925558312655087</v>
+        <v>0.009963768115942028</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2332506203473945</v>
+        <v>0.2327898550724638</v>
       </c>
       <c r="R10">
-        <v>0.1079404466501241</v>
+        <v>0.09963768115942029</v>
       </c>
       <c r="S10">
-        <v>0.3573200992555831</v>
+        <v>0.3605072463768116</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1460674157303371</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06179775280898876</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="K11">
-        <v>0.1797752808988764</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="L11">
-        <v>0.601123595505618</v>
+        <v>0.5990990990990991</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01123595505617977</v>
+        <v>0.01351351351351351</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7657657657657657</v>
+        <v>0.7338129496402878</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1351351351351351</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="K12">
-        <v>0.01801801801801802</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="L12">
-        <v>0.05405405405405406</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02702702702702703</v>
+        <v>0.02877697841726619</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6486486486486487</v>
+        <v>0.66</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1891891891891892</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1621621621621622</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02097902097902098</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1958041958041958</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="I15">
-        <v>0.04195804195804196</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="J15">
-        <v>0.3496503496503496</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="K15">
-        <v>0.05594405594405594</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01398601398601399</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08391608391608392</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2377622377622378</v>
+        <v>0.2256410256410256</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.032</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="I16">
-        <v>0.112</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="J16">
-        <v>0.352</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K16">
-        <v>0.128</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.024</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.024</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.128</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.002906976744186046</v>
+        <v>0.004454342984409799</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1540697674418605</v>
+        <v>0.155902004454343</v>
       </c>
       <c r="I17">
-        <v>0.08430232558139535</v>
+        <v>0.09131403118040089</v>
       </c>
       <c r="J17">
-        <v>0.4476744186046512</v>
+        <v>0.4543429844097995</v>
       </c>
       <c r="K17">
-        <v>0.09011627906976744</v>
+        <v>0.08685968819599109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02325581395348837</v>
+        <v>0.0200445434298441</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08430232558139535</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1133720930232558</v>
+        <v>0.1069042316258352</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.18</v>
+        <v>0.1890547263681592</v>
       </c>
       <c r="I18">
-        <v>0.04</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="J18">
-        <v>0.4466666666666667</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.0845771144278607</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01333333333333333</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09333333333333334</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08666666666666667</v>
+        <v>0.1044776119402985</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01533018867924528</v>
+        <v>0.01546860782529572</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2299528301886792</v>
+        <v>0.2202001819836215</v>
       </c>
       <c r="I19">
-        <v>0.09551886792452831</v>
+        <v>0.09463148316651501</v>
       </c>
       <c r="J19">
-        <v>0.3466981132075472</v>
+        <v>0.362147406733394</v>
       </c>
       <c r="K19">
-        <v>0.08726415094339622</v>
+        <v>0.08371246587807098</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02476415094339623</v>
+        <v>0.0272975432211101</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0009099181073703367</v>
       </c>
       <c r="O19">
-        <v>0.06367924528301887</v>
+        <v>0.07097361237488627</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1367924528301887</v>
+        <v>0.1246587807097361</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Boston College_A.xlsx
+++ b/team_specific_matrix/Boston College_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.165938864628821</v>
+        <v>0.1659919028340081</v>
       </c>
       <c r="C2">
-        <v>0.6026200873362445</v>
+        <v>0.5991902834008097</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008733624454148471</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1266375545851528</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09606986899563319</v>
+        <v>0.09716599190283401</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0072992700729927</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0072992700729927</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7883211678832117</v>
+        <v>0.7905405405405406</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1970802919708029</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.725</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03448275862068965</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01970443349753695</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05911330049261083</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2167487684729064</v>
+        <v>0.2079646017699115</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01970443349753695</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1625615763546798</v>
+        <v>0.1725663716814159</v>
       </c>
       <c r="R6">
-        <v>0.08866995073891626</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="S6">
-        <v>0.3990147783251232</v>
+        <v>0.415929203539823</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1132075471698113</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03773584905660377</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06289308176100629</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.119496855345912</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006289308176100629</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1635220125786163</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="R7">
-        <v>0.07547169811320754</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="S7">
-        <v>0.4213836477987422</v>
+        <v>0.4207650273224044</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06937799043062201</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01435406698564593</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05502392344497608</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1267942583732057</v>
+        <v>0.1239316239316239</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01913875598086124</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.222488038277512</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="R8">
-        <v>0.09330143540669857</v>
+        <v>0.09188034188034189</v>
       </c>
       <c r="S8">
-        <v>0.3995215311004784</v>
+        <v>0.3995726495726496</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1016042780748663</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0053475935828877</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1016042780748663</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0855614973262032</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0160427807486631</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1871657754010695</v>
+        <v>0.1797235023041475</v>
       </c>
       <c r="R9">
-        <v>0.0855614973262032</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="S9">
-        <v>0.4171122994652406</v>
+        <v>0.423963133640553</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1041666666666667</v>
+        <v>0.1005770816158285</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01721014492753623</v>
+        <v>0.01731244847485573</v>
       </c>
       <c r="E10">
-        <v>0.001811594202898551</v>
+        <v>0.00247320692497939</v>
       </c>
       <c r="F10">
-        <v>0.07065217391304347</v>
+        <v>0.07172300082440231</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1032608695652174</v>
+        <v>0.1005770816158285</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009963768115942028</v>
+        <v>0.00989282769991756</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2327898550724638</v>
+        <v>0.2324814509480627</v>
       </c>
       <c r="R10">
-        <v>0.09963768115942029</v>
+        <v>0.1005770816158285</v>
       </c>
       <c r="S10">
-        <v>0.3605072463768116</v>
+        <v>0.3643858202802968</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1486486486486487</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05855855855855856</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="K11">
-        <v>0.1801801801801802</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L11">
-        <v>0.5990990990990991</v>
+        <v>0.594488188976378</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01351351351351351</v>
+        <v>0.01181102362204724</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7338129496402878</v>
+        <v>0.7468354430379747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1798561151079137</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="K12">
-        <v>0.01438848920863309</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="L12">
-        <v>0.04316546762589928</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02877697841726619</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.22</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.12</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02051282051282051</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1846153846153846</v>
+        <v>0.1753554502369668</v>
       </c>
       <c r="I15">
-        <v>0.05128205128205128</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="J15">
-        <v>0.358974358974359</v>
+        <v>0.3554502369668247</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01538461538461539</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07692307692307693</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2256410256410256</v>
+        <v>0.2322274881516588</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0308641975308642</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1975308641975309</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I16">
-        <v>0.1049382716049383</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="J16">
-        <v>0.3888888888888889</v>
+        <v>0.3798882681564246</v>
       </c>
       <c r="K16">
-        <v>0.1172839506172839</v>
+        <v>0.1340782122905028</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02469135802469136</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02469135802469136</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1111111111111111</v>
+        <v>0.111731843575419</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.004454342984409799</v>
+        <v>0.006036217303822937</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.155902004454343</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="I17">
-        <v>0.09131403118040089</v>
+        <v>0.096579476861167</v>
       </c>
       <c r="J17">
-        <v>0.4543429844097995</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="K17">
-        <v>0.08685968819599109</v>
+        <v>0.08249496981891348</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0200445434298441</v>
+        <v>0.02414486921529175</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0801781737193764</v>
+        <v>0.0744466800804829</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1069042316258352</v>
+        <v>0.1106639839034205</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02985074626865672</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1890547263681592</v>
+        <v>0.1809954751131222</v>
       </c>
       <c r="I18">
-        <v>0.07960199004975124</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J18">
-        <v>0.4029850746268657</v>
+        <v>0.416289592760181</v>
       </c>
       <c r="K18">
-        <v>0.0845771144278607</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01492537313432836</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0945273631840796</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1044776119402985</v>
+        <v>0.09954751131221719</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01546860782529572</v>
+        <v>0.01462225832656377</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2202001819836215</v>
+        <v>0.2250203086921202</v>
       </c>
       <c r="I19">
-        <v>0.09463148316651501</v>
+        <v>0.09991876523151909</v>
       </c>
       <c r="J19">
-        <v>0.362147406733394</v>
+        <v>0.3574329813160033</v>
       </c>
       <c r="K19">
-        <v>0.08371246587807098</v>
+        <v>0.08610885458976442</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0272975432211101</v>
+        <v>0.02437043054427295</v>
       </c>
       <c r="N19">
-        <v>0.0009099181073703367</v>
+        <v>0.0008123476848090983</v>
       </c>
       <c r="O19">
-        <v>0.07097361237488627</v>
+        <v>0.06823720552396426</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1246587807097361</v>
+        <v>0.1234768480909829</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Boston College_A.xlsx
+++ b/team_specific_matrix/Boston College_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1659919028340081</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C2">
-        <v>0.5991902834008097</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008097165991902834</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1295546558704453</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09716599190283401</v>
+        <v>0.1007751937984496</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01351351351351351</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006756756756756757</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7905405405405406</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1891891891891892</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.725</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03097345132743363</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01769911504424779</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05309734513274336</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2079646017699115</v>
+        <v>0.208695652173913</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01769911504424779</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1725663716814159</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R6">
-        <v>0.084070796460177</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S6">
-        <v>0.415929203539823</v>
+        <v>0.4130434782608696</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09836065573770492</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03278688524590164</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06010928961748634</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1256830601092896</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01092896174863388</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1748633879781421</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R7">
-        <v>0.07650273224043716</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S7">
-        <v>0.4207650273224044</v>
+        <v>0.4202127659574468</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07692307692307693</v>
+        <v>0.07660455486542443</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01923076923076923</v>
+        <v>0.02070393374741201</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05555555555555555</v>
+        <v>0.05383022774327122</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1239316239316239</v>
+        <v>0.1221532091097308</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01923076923076923</v>
+        <v>0.02070393374741201</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2136752136752137</v>
+        <v>0.2132505175983437</v>
       </c>
       <c r="R8">
-        <v>0.09188034188034189</v>
+        <v>0.09109730848861283</v>
       </c>
       <c r="S8">
-        <v>0.3995726495726496</v>
+        <v>0.401656314699793</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09216589861751152</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004608294930875576</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1059907834101382</v>
+        <v>0.1076233183856502</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08755760368663594</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02304147465437788</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1797235023041475</v>
+        <v>0.179372197309417</v>
       </c>
       <c r="R9">
-        <v>0.08294930875576037</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="S9">
-        <v>0.423963133640553</v>
+        <v>0.42152466367713</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1005770816158285</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01731244847485573</v>
+        <v>0.01661392405063291</v>
       </c>
       <c r="E10">
-        <v>0.00247320692497939</v>
+        <v>0.002373417721518987</v>
       </c>
       <c r="F10">
-        <v>0.07172300082440231</v>
+        <v>0.07041139240506329</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1005770816158285</v>
+        <v>0.1036392405063291</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.00989282769991756</v>
+        <v>0.01028481012658228</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2324814509480627</v>
+        <v>0.2294303797468354</v>
       </c>
       <c r="R10">
-        <v>0.1005770816158285</v>
+        <v>0.1004746835443038</v>
       </c>
       <c r="S10">
-        <v>0.3643858202802968</v>
+        <v>0.3655063291139241</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1574803149606299</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05511811023622047</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="K11">
-        <v>0.1811023622047244</v>
+        <v>0.1870229007633588</v>
       </c>
       <c r="L11">
-        <v>0.594488188976378</v>
+        <v>0.583969465648855</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01181102362204724</v>
+        <v>0.01145038167938931</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7468354430379747</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1708860759493671</v>
+        <v>0.16875</v>
       </c>
       <c r="K12">
-        <v>0.01265822784810127</v>
+        <v>0.0125</v>
       </c>
       <c r="L12">
-        <v>0.04430379746835443</v>
+        <v>0.04375</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02531645569620253</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.1090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01895734597156398</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1753554502369668</v>
+        <v>0.1751152073732719</v>
       </c>
       <c r="I15">
-        <v>0.06161137440758294</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J15">
-        <v>0.3554502369668247</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="K15">
-        <v>0.06161137440758294</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01895734597156398</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07582938388625593</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2322274881516588</v>
+        <v>0.2350230414746544</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0335195530726257</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1955307262569832</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="I16">
-        <v>0.09497206703910614</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="J16">
-        <v>0.3798882681564246</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="K16">
-        <v>0.1340782122905028</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0223463687150838</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02793296089385475</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.111731843575419</v>
+        <v>0.1202185792349727</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006036217303822937</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1549295774647887</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="I17">
-        <v>0.096579476861167</v>
+        <v>0.09607843137254903</v>
       </c>
       <c r="J17">
-        <v>0.4507042253521127</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="K17">
-        <v>0.08249496981891348</v>
+        <v>0.08431372549019608</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02414486921529175</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0744466800804829</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1106639839034205</v>
+        <v>0.107843137254902</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02714932126696833</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1809954751131222</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="I18">
-        <v>0.07692307692307693</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="J18">
-        <v>0.416289592760181</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="K18">
-        <v>0.09502262443438914</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01357466063348416</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09049773755656108</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09954751131221719</v>
+        <v>0.1043478260869565</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01462225832656377</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2250203086921202</v>
+        <v>0.2227414330218069</v>
       </c>
       <c r="I19">
-        <v>0.09991876523151909</v>
+        <v>0.09890965732087227</v>
       </c>
       <c r="J19">
-        <v>0.3574329813160033</v>
+        <v>0.3613707165109034</v>
       </c>
       <c r="K19">
-        <v>0.08610885458976442</v>
+        <v>0.08489096573208722</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02437043054427295</v>
+        <v>0.02414330218068536</v>
       </c>
       <c r="N19">
-        <v>0.0008123476848090983</v>
+        <v>0.000778816199376947</v>
       </c>
       <c r="O19">
-        <v>0.06823720552396426</v>
+        <v>0.06619937694704049</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1234768480909829</v>
+        <v>0.1269470404984424</v>
       </c>
     </row>
   </sheetData>
